--- a/CTDC_Automation/TestData/Password_canine.xlsx
+++ b/CTDC_Automation/TestData/Password_canine.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laxmi\KatalonApril24\DataCommons_Automation\CTDC_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80B152D-268F-4999-B8F0-2320A7F12843}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2182DEEF-D141-46D2-9217-9A24E1F1B6EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="3210" yWindow="585" windowWidth="12225" windowHeight="7815" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
-    <sheet name="Hardcode " sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Hardcode " sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="112">
   <si>
     <t>Environment</t>
   </si>
@@ -337,9 +338,6 @@
     <t>WebExcel</t>
   </si>
   <si>
-    <t>https://caninecommons-stage.cancer.gov/#/cases</t>
-  </si>
-  <si>
     <t>R3MtYmJ3W5nHq1W</t>
   </si>
   <si>
@@ -362,6 +360,15 @@
   </si>
   <si>
     <t>bolt://ncias-s2261-c.nci.nih.gov:7687</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>https://caninecommons-qa.cancer.gov/#/cases</t>
+  </si>
+  <si>
+    <t>Firefox</t>
   </si>
 </sst>
 </file>
@@ -740,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,78 +795,56 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" t="s">
         <v>106</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>107</v>
-      </c>
-      <c r="H2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D4" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="/cases" display="https://caninecommons-stage.cancer.gov/ - /cases" xr:uid="{EE6720A7-C9D8-4EE2-8E31-C0EFEB18C846}"/>
-    <hyperlink ref="D3:D4" r:id="rId2" display="http://ncias-q2251-c.nci.nih.gov:7687" xr:uid="{7D477F4C-8045-4493-8CEC-7B02CC5D14C1}"/>
-    <hyperlink ref="D5" r:id="rId3" display="http://ncias-q2251-c.nci.nih.gov:7687" xr:uid="{4381B5EF-3CC8-41D8-98D4-CF7F9613D425}"/>
-    <hyperlink ref="D2" r:id="rId4" display="http://ncias-q2251-c.nci.nih.gov:7687" xr:uid="{39DD6F22-84C1-4521-800E-DF88F9D928F6}"/>
+    <hyperlink ref="B2" r:id="rId1" location="/cases" xr:uid="{EE6720A7-C9D8-4EE2-8E31-C0EFEB18C846}"/>
+    <hyperlink ref="D2" r:id="rId2" display="http://ncias-q2251-c.nci.nih.gov:7687" xr:uid="{FD2E1ABE-A9A6-41B9-BB9B-0E4AC99C8344}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F045F94-6E8E-4923-AC5B-61C14642495B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E60AE08-F6F7-4D66-9A20-44C6071A5BA3}">
-  <dimension ref="A2:K96"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89:XFD89"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,166 +855,167 @@
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" t="s">
+        <v>101</v>
+      </c>
+    </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="D2" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D12" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>32</v>
       </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
         <v>45</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E40" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
         <v>45</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
+    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
+    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D46" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" t="s">
-        <v>20</v>
-      </c>
-      <c r="I50" t="s">
-        <v>18</v>
       </c>
       <c r="J50" t="s">
         <v>19</v>
@@ -1039,32 +1025,8 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" t="s">
-        <v>23</v>
-      </c>
-      <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s">
-        <v>22</v>
-      </c>
-      <c r="H51" t="s">
-        <v>20</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>18</v>
+      <c r="D51" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="J51" t="s">
         <v>19</v>
@@ -1074,33 +1036,6 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" t="s">
-        <v>24</v>
-      </c>
-      <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s">
-        <v>25</v>
-      </c>
-      <c r="H52" t="s">
-        <v>20</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="J52" t="s">
         <v>52</v>
       </c>
@@ -1109,33 +1044,6 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" t="s">
-        <v>23</v>
-      </c>
-      <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s">
-        <v>22</v>
-      </c>
-      <c r="H53" t="s">
-        <v>20</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="J53" t="s">
         <v>19</v>
       </c>
@@ -1144,33 +1052,6 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" t="s">
-        <v>24</v>
-      </c>
-      <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s">
-        <v>57</v>
-      </c>
-      <c r="H54" t="s">
-        <v>20</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="J54" t="s">
         <v>19</v>
       </c>
@@ -1192,22 +1073,80 @@
         <v>4</v>
       </c>
       <c r="E55" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
       </c>
       <c r="G55" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="H55" t="s">
         <v>20</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="I55" t="s">
         <v>18</v>
       </c>
       <c r="J55" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>25</v>
+      </c>
+      <c r="H57" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -1218,24 +1157,24 @@
         <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
       </c>
       <c r="G58" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="H58" t="s">
         <v>20</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J58" t="s">
@@ -1250,28 +1189,28 @@
         <v>3</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
       </c>
       <c r="G59" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="H59" t="s">
         <v>20</v>
       </c>
-      <c r="I59" t="s">
-        <v>18</v>
+      <c r="I59" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="J59" t="s">
         <v>19</v>
@@ -1285,27 +1224,27 @@
         <v>3</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
       </c>
       <c r="G60" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="H60" t="s">
         <v>20</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J60" t="s">
@@ -1316,33 +1255,6 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>3</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C61" t="s">
-        <v>74</v>
-      </c>
-      <c r="D61" t="s">
-        <v>74</v>
-      </c>
-      <c r="E61" t="s">
-        <v>82</v>
-      </c>
-      <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s">
-        <v>78</v>
-      </c>
-      <c r="H61" t="s">
-        <v>20</v>
-      </c>
-      <c r="I61" t="s">
-        <v>18</v>
-      </c>
       <c r="J61" t="s">
         <v>19</v>
       </c>
@@ -1351,33 +1263,6 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>18</v>
-      </c>
-      <c r="B62" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H62" t="s">
-        <v>18</v>
-      </c>
-      <c r="I62" t="s">
-        <v>18</v>
-      </c>
       <c r="J62" t="s">
         <v>15</v>
       </c>
@@ -1387,31 +1272,31 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="E63" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G63" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="H63" t="s">
-        <v>18</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="I63" t="s">
+        <v>18</v>
       </c>
       <c r="J63" t="s">
         <v>51</v>
@@ -1428,19 +1313,19 @@
         <v>26</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="D64" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="E64" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="F64" t="s">
         <v>16</v>
       </c>
       <c r="G64" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="H64" t="s">
         <v>20</v>
@@ -1463,24 +1348,24 @@
         <v>26</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="D65" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="E65" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="F65" t="s">
         <v>16</v>
       </c>
       <c r="G65" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="H65" t="s">
         <v>20</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="I65" t="s">
         <v>18</v>
       </c>
       <c r="J65" t="s">
@@ -1492,30 +1377,30 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="E66" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G66" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="H66" t="s">
-        <v>18</v>
-      </c>
-      <c r="I66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" t="s">
         <v>18</v>
       </c>
       <c r="J66" s="2" t="s">
@@ -1527,28 +1412,28 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>83</v>
+        <v>18</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="E67" t="s">
         <v>18</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G67" t="s">
         <v>18</v>
       </c>
       <c r="H67" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="I67" t="s">
         <v>18</v>
@@ -1562,31 +1447,31 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>3</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>83</v>
+        <v>18</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
       </c>
       <c r="C68" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="E68" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G68" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="H68" t="s">
-        <v>20</v>
-      </c>
-      <c r="I68" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="J68" t="s">
         <v>19</v>
@@ -1600,22 +1485,22 @@
         <v>3</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
       </c>
       <c r="G69" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="H69" t="s">
         <v>20</v>
@@ -1635,27 +1520,27 @@
         <v>3</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="C70" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="F70" t="s">
         <v>16</v>
       </c>
       <c r="G70" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="H70" t="s">
         <v>20</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J70" t="s">
@@ -1667,30 +1552,30 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C71" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="E71" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G71" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="H71" t="s">
-        <v>20</v>
-      </c>
-      <c r="I71" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J71" t="s">
@@ -1700,100 +1585,216 @@
         <v>12</v>
       </c>
     </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" t="s">
+        <v>97</v>
+      </c>
+      <c r="E72" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" t="s">
+        <v>98</v>
+      </c>
+      <c r="I72" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="C73" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73" t="s">
+        <v>74</v>
+      </c>
+      <c r="E73" t="s">
+        <v>90</v>
+      </c>
+      <c r="F73" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
         <v>84</v>
       </c>
+      <c r="H73" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" t="s">
+        <v>74</v>
+      </c>
+      <c r="D74" t="s">
+        <v>74</v>
+      </c>
+      <c r="E74" t="s">
+        <v>82</v>
+      </c>
+      <c r="F74" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>91</v>
+      </c>
+      <c r="H74" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" t="s">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>92</v>
+      </c>
+      <c r="F75" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>93</v>
+      </c>
+      <c r="H75" t="s">
+        <v>20</v>
+      </c>
+      <c r="I75" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="C76" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D76" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
-        <v>79</v>
-      </c>
-      <c r="D77" t="s">
-        <v>87</v>
+        <v>74</v>
+      </c>
+      <c r="E76" t="s">
+        <v>94</v>
+      </c>
+      <c r="F76" t="s">
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>95</v>
+      </c>
+      <c r="H76" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>88</v>
-      </c>
-      <c r="D78" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
-        <v>90</v>
-      </c>
-      <c r="D79" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
-        <v>82</v>
-      </c>
-      <c r="D80" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D81" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D82" t="s">
-        <v>95</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>88</v>
+      </c>
+      <c r="D83" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>3</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="C84" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D84" t="s">
-        <v>97</v>
-      </c>
-      <c r="E84" t="s">
-        <v>18</v>
-      </c>
-      <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s">
-        <v>18</v>
-      </c>
-      <c r="H84" t="s">
-        <v>98</v>
-      </c>
-      <c r="I84" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="J84" t="s">
         <v>99</v>
       </c>
       <c r="K84" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>82</v>
+      </c>
+      <c r="D85" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>92</v>
+      </c>
+      <c r="D86" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>94</v>
+      </c>
+      <c r="D87" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -1804,22 +1805,22 @@
         <v>83</v>
       </c>
       <c r="C89" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D89" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E89" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G89" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="H89" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="I89" t="s">
         <v>18</v>
@@ -1832,33 +1833,6 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>3</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C90" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90" t="s">
-        <v>4</v>
-      </c>
-      <c r="E90" t="s">
-        <v>5</v>
-      </c>
-      <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s">
-        <v>56</v>
-      </c>
-      <c r="H90" t="s">
-        <v>20</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="J90" t="s">
         <v>19</v>
       </c>
@@ -1867,33 +1841,6 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>3</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C91" t="s">
-        <v>74</v>
-      </c>
-      <c r="D91" t="s">
-        <v>74</v>
-      </c>
-      <c r="E91" t="s">
-        <v>85</v>
-      </c>
-      <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s">
-        <v>86</v>
-      </c>
-      <c r="H91" t="s">
-        <v>20</v>
-      </c>
-      <c r="I91" t="s">
-        <v>18</v>
-      </c>
       <c r="J91" t="s">
         <v>19</v>
       </c>
@@ -1902,33 +1849,6 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>3</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C92" t="s">
-        <v>74</v>
-      </c>
-      <c r="D92" t="s">
-        <v>74</v>
-      </c>
-      <c r="E92" t="s">
-        <v>79</v>
-      </c>
-      <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s">
-        <v>87</v>
-      </c>
-      <c r="H92" t="s">
-        <v>20</v>
-      </c>
-      <c r="I92" t="s">
-        <v>18</v>
-      </c>
       <c r="J92" t="s">
         <v>19</v>
       </c>
@@ -1937,33 +1857,6 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>18</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C93" t="s">
-        <v>66</v>
-      </c>
-      <c r="D93" t="s">
-        <v>63</v>
-      </c>
-      <c r="E93" t="s">
-        <v>18</v>
-      </c>
-      <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s">
-        <v>71</v>
-      </c>
-      <c r="H93" t="s">
-        <v>18</v>
-      </c>
-      <c r="I93" t="s">
-        <v>18</v>
-      </c>
       <c r="J93" t="s">
         <v>73</v>
       </c>
@@ -1973,28 +1866,28 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="C94" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D94" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E94" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G94" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="H94" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I94" t="s">
         <v>18</v>
@@ -2008,30 +1901,30 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="C95" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="E95" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G95" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H95" t="s">
-        <v>18</v>
-      </c>
-      <c r="I95" t="s">
+        <v>20</v>
+      </c>
+      <c r="I95" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J95" t="s">
@@ -2043,28 +1936,28 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="C96" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D96" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E96" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G96" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="H96" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I96" t="s">
         <v>18</v>
@@ -2076,33 +1969,180 @@
         <v>12</v>
       </c>
     </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C97" t="s">
+        <v>74</v>
+      </c>
+      <c r="D97" t="s">
+        <v>74</v>
+      </c>
+      <c r="E97" t="s">
+        <v>79</v>
+      </c>
+      <c r="F97" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>87</v>
+      </c>
+      <c r="H97" t="s">
+        <v>20</v>
+      </c>
+      <c r="I97" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" t="s">
+        <v>66</v>
+      </c>
+      <c r="D98" t="s">
+        <v>63</v>
+      </c>
+      <c r="E98" t="s">
+        <v>18</v>
+      </c>
+      <c r="F98" t="s">
+        <v>18</v>
+      </c>
+      <c r="G98" t="s">
+        <v>71</v>
+      </c>
+      <c r="H98" t="s">
+        <v>18</v>
+      </c>
+      <c r="I98" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" t="s">
+        <v>64</v>
+      </c>
+      <c r="D99" t="s">
+        <v>67</v>
+      </c>
+      <c r="E99" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" t="s">
+        <v>18</v>
+      </c>
+      <c r="G99" t="s">
+        <v>72</v>
+      </c>
+      <c r="H99" t="s">
+        <v>18</v>
+      </c>
+      <c r="I99" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>18</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" t="s">
+        <v>61</v>
+      </c>
+      <c r="D100" t="s">
+        <v>65</v>
+      </c>
+      <c r="E100" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" t="s">
+        <v>18</v>
+      </c>
+      <c r="G100" t="s">
+        <v>62</v>
+      </c>
+      <c r="H100" t="s">
+        <v>18</v>
+      </c>
+      <c r="I100" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>18</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" t="s">
+        <v>18</v>
+      </c>
+      <c r="G101" t="s">
+        <v>70</v>
+      </c>
+      <c r="H101" t="s">
+        <v>18</v>
+      </c>
+      <c r="I101" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B51" r:id="rId1" location="/*" xr:uid="{C9AE243C-7D38-42DB-98EE-FEB2A5197525}"/>
-    <hyperlink ref="B52" r:id="rId2" location="/*" xr:uid="{C5F23D49-DEB4-423A-99A1-C8A3DF370F99}"/>
-    <hyperlink ref="B50" r:id="rId3" location="/*" xr:uid="{906257EB-278B-4ABF-812D-D24FB4341A26}"/>
-    <hyperlink ref="B53" r:id="rId4" location="/" xr:uid="{29304175-B50E-41B4-AC98-34D2B1660D23}"/>
-    <hyperlink ref="B54" r:id="rId5" location="/*" xr:uid="{8C32DB52-DF0F-495C-9836-7709B9356524}"/>
-    <hyperlink ref="B55" r:id="rId6" location="/*" xr:uid="{ED13E374-6211-4F31-A6E6-846253084942}"/>
-    <hyperlink ref="B65" r:id="rId7" location="/" xr:uid="{4D84D3BD-540C-4BB3-A0D9-6555D9A29F93}"/>
-    <hyperlink ref="B64" r:id="rId8" location="/" xr:uid="{109B9352-C66E-4534-B43F-4B09208E973A}"/>
-    <hyperlink ref="B58" r:id="rId9" location="/" xr:uid="{E7F60B99-C88C-456A-A87A-C52A037B43A2}"/>
-    <hyperlink ref="B59" r:id="rId10" location="/" xr:uid="{897F74A6-339E-4CD2-8A0E-58FD99237865}"/>
-    <hyperlink ref="B60" r:id="rId11" location="/" xr:uid="{A6B74DC6-85FA-46CC-BC25-565BD87AF5FB}"/>
-    <hyperlink ref="B61" r:id="rId12" location="/" xr:uid="{6269015C-572A-4C04-BCFE-64999BF85E5B}"/>
-    <hyperlink ref="B66" r:id="rId13" location="/cases" display="https://caninecommons.cancer.gov/ - /cases" xr:uid="{51156F8B-EF04-42B4-A345-32F76683C99E}"/>
-    <hyperlink ref="B84" r:id="rId14" location="/cases" display="https://caninecommons.cancer.gov/ - /cases" xr:uid="{0709A2AA-493D-4E0A-B4A5-568F0E74FB62}"/>
-    <hyperlink ref="B67" r:id="rId15" location="/cases" display="https://caninecommons.cancer.gov/ - /cases" xr:uid="{A3D20CBE-E0A9-4C65-96C2-411D4196DD1E}"/>
-    <hyperlink ref="B68" r:id="rId16" location="/cases" display="https://caninecommons.cancer.gov/ - /cases" xr:uid="{F495BA03-5A43-487E-A6F3-2B3D861022A6}"/>
-    <hyperlink ref="B69" r:id="rId17" location="/cases" display="https://caninecommons.cancer.gov/ - /cases" xr:uid="{A4EF0D70-55F6-4146-941D-0111CF05AE45}"/>
-    <hyperlink ref="B71" r:id="rId18" location="/cases" display="https://caninecommons.cancer.gov/ - /cases" xr:uid="{F5F94C96-DC2D-4109-A5DF-ADD8D38037D2}"/>
-    <hyperlink ref="B70" r:id="rId19" location="/cases" display="https://caninecommons.cancer.gov/ - /cases" xr:uid="{56EF8542-6EE9-4B77-87AB-6ADFE6CA0335}"/>
-    <hyperlink ref="B90" r:id="rId20" location="/cases" display="https://caninecommons.cancer.gov/ - /cases" xr:uid="{3371F7D8-D55A-4CA9-A5A4-460523FC1F48}"/>
-    <hyperlink ref="B91" r:id="rId21" location="/cases" display="https://caninecommons.cancer.gov/ - /cases" xr:uid="{7658CB26-462B-46E0-ACA5-733524BF211E}"/>
-    <hyperlink ref="B92" r:id="rId22" location="/cases" display="https://caninecommons.cancer.gov/ - /cases" xr:uid="{9C26A072-DE6A-4549-87FD-A2B8446F03E5}"/>
-    <hyperlink ref="B89" r:id="rId23" location="/cases" display="https://caninecommons.cancer.gov/ - /cases" xr:uid="{F3E8BB13-45E4-4FD1-9A2B-271C35E346CA}"/>
+    <hyperlink ref="B56" r:id="rId1" location="/*" xr:uid="{C9AE243C-7D38-42DB-98EE-FEB2A5197525}"/>
+    <hyperlink ref="B57" r:id="rId2" location="/*" xr:uid="{C5F23D49-DEB4-423A-99A1-C8A3DF370F99}"/>
+    <hyperlink ref="B55" r:id="rId3" location="/*" xr:uid="{906257EB-278B-4ABF-812D-D24FB4341A26}"/>
+    <hyperlink ref="B58" r:id="rId4" location="/" xr:uid="{29304175-B50E-41B4-AC98-34D2B1660D23}"/>
+    <hyperlink ref="B59" r:id="rId5" location="/*" xr:uid="{8C32DB52-DF0F-495C-9836-7709B9356524}"/>
+    <hyperlink ref="B60" r:id="rId6" location="/*" xr:uid="{ED13E374-6211-4F31-A6E6-846253084942}"/>
+    <hyperlink ref="B70" r:id="rId7" location="/" xr:uid="{4D84D3BD-540C-4BB3-A0D9-6555D9A29F93}"/>
+    <hyperlink ref="B69" r:id="rId8" location="/" xr:uid="{109B9352-C66E-4534-B43F-4B09208E973A}"/>
+    <hyperlink ref="B63" r:id="rId9" location="/" xr:uid="{E7F60B99-C88C-456A-A87A-C52A037B43A2}"/>
+    <hyperlink ref="B64" r:id="rId10" location="/" xr:uid="{897F74A6-339E-4CD2-8A0E-58FD99237865}"/>
+    <hyperlink ref="B65" r:id="rId11" location="/" xr:uid="{A6B74DC6-85FA-46CC-BC25-565BD87AF5FB}"/>
+    <hyperlink ref="B66" r:id="rId12" location="/" xr:uid="{6269015C-572A-4C04-BCFE-64999BF85E5B}"/>
+    <hyperlink ref="B71" r:id="rId13" location="/cases" display="https://caninecommons.cancer.gov/ - /cases" xr:uid="{51156F8B-EF04-42B4-A345-32F76683C99E}"/>
+    <hyperlink ref="B89" r:id="rId14" location="/cases" display="https://caninecommons.cancer.gov/ - /cases" xr:uid="{0709A2AA-493D-4E0A-B4A5-568F0E74FB62}"/>
+    <hyperlink ref="B72" r:id="rId15" location="/cases" display="https://caninecommons.cancer.gov/ - /cases" xr:uid="{A3D20CBE-E0A9-4C65-96C2-411D4196DD1E}"/>
+    <hyperlink ref="B73" r:id="rId16" location="/cases" display="https://caninecommons.cancer.gov/ - /cases" xr:uid="{F495BA03-5A43-487E-A6F3-2B3D861022A6}"/>
+    <hyperlink ref="B74" r:id="rId17" location="/cases" display="https://caninecommons.cancer.gov/ - /cases" xr:uid="{A4EF0D70-55F6-4146-941D-0111CF05AE45}"/>
+    <hyperlink ref="B76" r:id="rId18" location="/cases" display="https://caninecommons.cancer.gov/ - /cases" xr:uid="{F5F94C96-DC2D-4109-A5DF-ADD8D38037D2}"/>
+    <hyperlink ref="B75" r:id="rId19" location="/cases" display="https://caninecommons.cancer.gov/ - /cases" xr:uid="{56EF8542-6EE9-4B77-87AB-6ADFE6CA0335}"/>
+    <hyperlink ref="B95" r:id="rId20" location="/cases" display="https://caninecommons.cancer.gov/ - /cases" xr:uid="{3371F7D8-D55A-4CA9-A5A4-460523FC1F48}"/>
+    <hyperlink ref="B96" r:id="rId21" location="/cases" display="https://caninecommons.cancer.gov/ - /cases" xr:uid="{7658CB26-462B-46E0-ACA5-733524BF211E}"/>
+    <hyperlink ref="B97" r:id="rId22" location="/cases" display="https://caninecommons.cancer.gov/ - /cases" xr:uid="{9C26A072-DE6A-4549-87FD-A2B8446F03E5}"/>
+    <hyperlink ref="B94" r:id="rId23" location="/cases" display="https://caninecommons.cancer.gov/ - /cases" xr:uid="{F3E8BB13-45E4-4FD1-9A2B-271C35E346CA}"/>
+    <hyperlink ref="D1:D2" r:id="rId24" display="http://ncias-q2251-c.nci.nih.gov:7687" xr:uid="{7D477F4C-8045-4493-8CEC-7B02CC5D14C1}"/>
+    <hyperlink ref="D3" r:id="rId25" display="http://ncias-q2251-c.nci.nih.gov:7687" xr:uid="{4381B5EF-3CC8-41D8-98D4-CF7F9613D425}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId24"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId26"/>
 </worksheet>
 </file>